--- a/biology/Botanique/Quercus_phillyraeoides/Quercus_phillyraeoides.xlsx
+++ b/biology/Botanique/Quercus_phillyraeoides/Quercus_phillyraeoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus phillyreoides est un taxon et une espèce de chêne, utilisée pour la fabrication du binchōtan.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (4 mars 2016)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (4 mars 2016) :
 variété Quercus phillyraeoides var. sinensis Schottky</t>
         </is>
       </c>
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,6 +613,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,9 +640,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus phillyraeoides est l'espèce de chêne utilisée pour la fabrication du binchōtan[4], charbon actif végétal traditionnel japonais.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus phillyraeoides est l'espèce de chêne utilisée pour la fabrication du binchōtan, charbon actif végétal traditionnel japonais.
 </t>
         </is>
       </c>
@@ -652,6 +674,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -678,6 +702,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -703,7 +729,9 @@
           <t>Aspect culturels et historiques</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce chêne est l'arbre officiel de la préfecture de Wakayama[réf. souhaitée].
 </t>
